--- a/biology/Virologie/ARN_polymérase_du_VHC/ARN_polymérase_du_VHC.xlsx
+++ b/biology/Virologie/ARN_polymérase_du_VHC/ARN_polymérase_du_VHC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARN_polym%C3%A9rase_du_VHC</t>
+          <t>ARN_polymérase_du_VHC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ARN polymérase du VHC ou protéine NS5B est une protéine non structurelle du virus de l'hépatite C. C'est une ARN polymérase ARN dépendante qui permet la réplication du virus. C'est la cible d'une classe de médicaments du traitement de l'hépatite C, les inhibiteurs de la polymérase du VHC.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARN_polym%C3%A9rase_du_VHC</t>
+          <t>ARN_polymérase_du_VHC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C T Ranjith-Kumar, C Cheng Kao, « Chapter 10: Biochemical Activities of the HCV NS5B RNA-Dependent RNA Polymerase » (lire en ligne), Seng-Lai Tan, Hepatitis C Viruses: Genomes and Molecular Biology, 2006,  (ISBN 978-1-904933-20-5) (lire en ligne)
